--- a/biology/Zoologie/Amblyseius/Amblyseius.xlsx
+++ b/biology/Zoologie/Amblyseius/Amblyseius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amblyseius est un genre d'acariens de la famille des Phytoseiidae, plus de 300 espèces sont connues.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont prédatrices. Les formes mobiles ont pour proies principalement les acariens et les thysanoptères sur les arbres fruitiers, la vigne, les cultures légumières et les cultures ornementales. Plusieurs espèces sont donc utilisées comme agents de contrôle biologique de ces ravageurs.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amblyseius abbasovae Wainstein &amp; Beglyarov, 1971
@@ -885,7 +901,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Berlese, 1914 : Acari nuovi. Manipulus IX. Redia Giornale di entomologia, vol. 10, p. 113–150.
 Sur les autres projets Wikimedia :
